--- a/data/trans_camb/P16B11-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B11-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16B11-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B11-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,56</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,96</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,77%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 31,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 36,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 22,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,0</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 4,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 4,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 4,72</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 4,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 4,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 4,95</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 6,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 6,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 5,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 4,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 4,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 3,96</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 7,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 7,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 5,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 4,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 4,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 4,14</t>
         </is>
       </c>
     </row>
@@ -1079,22 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 3,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 2,34</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 4,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 2,4</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,68</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 9,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 8,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 3,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 4,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 4,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 5,01</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,59; 10,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,58; 9,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 3,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 5,17</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 4,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 5,27</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,94; 3,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 4,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 2,96</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 3,07</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 2,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 2,96</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 4,08</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 4,24</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 3,06</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 3,19</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 3,02</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 3,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B11-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B11-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>2,35</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,88</t>
+          <t>-0,84; 5,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,54</t>
+          <t>0,0; 7,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,67</t>
+          <t>0,76; 7,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,68</t>
+          <t>0,76; 6,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,98</t>
+          <t>0,39; 4,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,96</t>
+          <t>0,86; 5,04</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,47</t>
+          <t>-0,85; 6,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,73</t>
+          <t>0,0; 8,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,98</t>
+          <t>0,77; 7,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,2</t>
+          <t>0,77; 7,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,02</t>
+          <t>0,4; 4,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,0</t>
+          <t>0,86; 5,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 4,66</t>
+          <t>0,79; 6,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,13</t>
+          <t>0,79; 6,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,95</t>
+          <t>0,51; 5,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,95</t>
+          <t>-0,58; 4,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,38</t>
+          <t>0,81; 4,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,72</t>
+          <t>0,37; 3,96</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 4,89</t>
+          <t>0,8; 7,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,69</t>
+          <t>0,8; 7,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,64</t>
+          <t>0,51; 5,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,47</t>
+          <t>-0,58; 4,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,6</t>
+          <t>0,81; 4,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,95</t>
+          <t>0,38; 4,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>0,47</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,59</t>
+          <t>0,0; 5,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,41</t>
+          <t>-1,56; 3,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,55</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,96</t>
+          <t>-0,86; 2,34</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>0,47%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,92</t>
+          <t>0,0; 5,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,61</t>
+          <t>-1,56; 4,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,76</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,14</t>
+          <t>-0,87; 2,4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>2,68</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 9,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 8,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,61</t>
+          <t>-1,5; 3,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,97</t>
+          <t>0,6; 4,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,08</t>
+          <t>0,24; 4,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,34</t>
+          <t>1,24; 5,01</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,59; 10,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,58; 9,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,95</t>
+          <t>-1,49; 3,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,18</t>
+          <t>0,6; 5,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,18</t>
+          <t>0,24; 4,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,4</t>
+          <t>1,25; 5,27</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>1,9</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,57; 9,57</t>
+          <t>0,94; 3,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,56; 8,85</t>
+          <t>1,15; 4,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,31</t>
+          <t>0,48; 2,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,92</t>
+          <t>0,54; 3,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,38</t>
+          <t>0,96; 2,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,01</t>
+          <t>1,03; 2,96</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,59; 10,58</t>
+          <t>0,96; 4,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,58; 9,71</t>
+          <t>1,16; 4,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,49</t>
+          <t>0,48; 3,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,17</t>
+          <t>0,55; 3,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,6</t>
+          <t>0,98; 3,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,27</t>
+          <t>1,04; 3,06</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 3,92</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 4,07</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 2,96</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 3,07</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 2,92</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1,03; 2,96</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>2,33%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>1,56%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>1,64%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>1,81%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>1,94%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 4,08</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 4,24</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 3,06</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 3,19</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 3,02</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 3,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16B11-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B11-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 5,9</t>
+          <t>-0,74; 6,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,52</t>
+          <t>0,0; 6,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,12</t>
+          <t>0,76; 7,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 6,83</t>
+          <t>0,77; 6,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,73</t>
+          <t>0,4; 4,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,04</t>
+          <t>0,91; 5,42</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 6,3</t>
+          <t>-0,74; 6,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,14</t>
+          <t>0,0; 7,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,67</t>
+          <t>0,77; 7,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,34</t>
+          <t>0,77; 7,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,96</t>
+          <t>0,4; 5,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,3</t>
+          <t>0,92; 5,73</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,77</t>
+          <t>0,79; 6,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,62</t>
+          <t>0,79; 6,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,59</t>
+          <t>0,51; 5,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,41</t>
+          <t>-0,57; 4,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,55</t>
+          <t>0,96; 4,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,96</t>
+          <t>0,4; 4,17</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,26</t>
+          <t>0,79; 7,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,09</t>
+          <t>0,8; 7,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,92</t>
+          <t>0,51; 5,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,61</t>
+          <t>-0,57; 4,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,76</t>
+          <t>0,96; 4,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,14</t>
+          <t>0,42; 4,39</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,61</t>
+          <t>0,0; 5,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,97</t>
+          <t>-1,54; 4,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,08</t>
+          <t>0,0; 2,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,34</t>
+          <t>-0,83; 2,35</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,95</t>
+          <t>0,0; 5,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,18</t>
+          <t>-1,54; 4,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,18</t>
+          <t>0,0; 2,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,4</t>
+          <t>-0,83; 2,42</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 9,57</t>
+          <t>1,56; 8,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,56; 8,85</t>
+          <t>1,57; 8,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,31</t>
+          <t>-1,5; 3,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,92</t>
+          <t>0,0; 4,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,38</t>
+          <t>0,35; 4,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,01</t>
+          <t>1,32; 5,15</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,59; 10,58</t>
+          <t>1,59; 9,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,58; 9,71</t>
+          <t>1,6; 9,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,49</t>
+          <t>-1,51; 3,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,17</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,6</t>
+          <t>0,35; 4,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,27</t>
+          <t>1,34; 5,42</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,92</t>
+          <t>0,87; 3,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,07</t>
+          <t>1,2; 4,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,96</t>
+          <t>0,48; 3,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,07</t>
+          <t>0,55; 3,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,92</t>
+          <t>1,04; 2,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,96</t>
+          <t>1,08; 3,04</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,08</t>
+          <t>0,87; 3,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,24</t>
+          <t>1,21; 4,46</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,06</t>
+          <t>0,48; 3,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,19</t>
+          <t>0,56; 3,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,02</t>
+          <t>1,05; 3,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,06</t>
+          <t>1,1; 3,14</t>
         </is>
       </c>
     </row>
